--- a/Code/Optimiser/Stoc RowCol calcs.xlsx
+++ b/Code/Optimiser/Stoc RowCol calcs.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Robin\OneDrive\Documenten\GitHub\OWFSim\Code\Stochastic\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Robin\OneDrive\Documenten\GitHub\OWFSim\Code\Optimiser\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B473E197-1080-4CEB-8689-482480B1E444}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9430375-9F7A-4999-828E-C05BC38E82A5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{F85780C8-78EB-42E2-BE9E-CEC15D110F12}"/>
+    <workbookView xWindow="-19320" yWindow="1125" windowWidth="19440" windowHeight="15000" xr2:uid="{F85780C8-78EB-42E2-BE9E-CEC15D110F12}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -468,7 +468,7 @@
   <dimension ref="A1:E22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -485,7 +485,7 @@
       </c>
       <c r="E1">
         <f>B1*B2</f>
-        <v>180</v>
+        <v>48</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
@@ -493,7 +493,7 @@
         <v>2</v>
       </c>
       <c r="B2">
-        <v>15</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
@@ -545,7 +545,7 @@
         <v>23</v>
       </c>
       <c r="E6">
-        <v>2.6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
@@ -553,7 +553,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
@@ -570,14 +570,14 @@
       </c>
       <c r="B11">
         <f>SUM(B12:B17)</f>
-        <v>2666</v>
+        <v>3274</v>
       </c>
       <c r="D11" s="1" t="s">
         <v>11</v>
       </c>
       <c r="E11">
         <f>SUM(E12:E17)</f>
-        <v>12998</v>
+        <v>18538</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
@@ -586,14 +586,14 @@
       </c>
       <c r="B12">
         <f>B7*E1*B5</f>
-        <v>900</v>
+        <v>1200</v>
       </c>
       <c r="D12">
         <v>2</v>
       </c>
       <c r="E12">
         <f>B12*D12</f>
-        <v>1800</v>
+        <v>2400</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
@@ -602,14 +602,14 @@
       </c>
       <c r="B13">
         <f>B7*B3</f>
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="D13">
         <v>1</v>
       </c>
       <c r="E13">
         <f t="shared" ref="E13:E17" si="0">B13*D13</f>
-        <v>2</v>
+        <v>10</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
@@ -618,15 +618,15 @@
       </c>
       <c r="B14">
         <f>B6*B1*B2</f>
-        <v>360</v>
+        <v>96</v>
       </c>
       <c r="D14">
         <f>B5*E4*B7*2+1</f>
-        <v>8</v>
+        <v>36</v>
       </c>
       <c r="E14">
         <f t="shared" si="0"/>
-        <v>2880</v>
+        <v>3456</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
@@ -635,7 +635,7 @@
       </c>
       <c r="B15">
         <f>(E1*B5)-(E1*E6)</f>
-        <v>432</v>
+        <v>144</v>
       </c>
       <c r="D15">
         <f>2*B5+1</f>
@@ -643,7 +643,7 @@
       </c>
       <c r="E15">
         <f t="shared" si="0"/>
-        <v>4752</v>
+        <v>1584</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
@@ -652,7 +652,7 @@
       </c>
       <c r="B16">
         <f>(E1*B7*B4)-(E1*E6)</f>
-        <v>72</v>
+        <v>624</v>
       </c>
       <c r="D16">
         <f>D15+1</f>
@@ -660,7 +660,7 @@
       </c>
       <c r="E16">
         <f t="shared" si="0"/>
-        <v>864</v>
+        <v>7488</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
@@ -669,7 +669,7 @@
       </c>
       <c r="B17">
         <f>E1*B7*B5</f>
-        <v>900</v>
+        <v>1200</v>
       </c>
       <c r="D17">
         <f>3</f>
@@ -677,7 +677,7 @@
       </c>
       <c r="E17">
         <f t="shared" si="0"/>
-        <v>2700</v>
+        <v>3600</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
@@ -686,7 +686,7 @@
       </c>
       <c r="B19">
         <f>SUM(B20:B23)</f>
-        <v>1104</v>
+        <v>1464</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
@@ -704,7 +704,7 @@
       </c>
       <c r="B21">
         <f>E1*B7</f>
-        <v>180</v>
+        <v>240</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
@@ -713,7 +713,7 @@
       </c>
       <c r="B22">
         <f>B7*B5*E1</f>
-        <v>900</v>
+        <v>1200</v>
       </c>
     </row>
   </sheetData>
